--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512446.904231464</v>
+        <v>1591436.847685778</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>278692.0725916853</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5971378.68794589</v>
+        <v>6520540.746204891</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>90.02949848241227</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -674,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.8429830942312</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>130.3853151429591</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,10 +831,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>105.2666242787484</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -871,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
@@ -905,16 +907,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>71.9738694544921</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>185.8250427459907</v>
       </c>
     </row>
     <row r="6">
@@ -1054,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>22.28534392847715</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1114,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>77.11239509069979</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>196.7038041365262</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>45.10878876340928</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1294,16 +1296,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>109.142675762685</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>167.3665460298589</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1576,13 +1578,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>46.2253027104011</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>81.49380289235361</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1143223529979</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1765,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>46.4771045885344</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>115.6348798138343</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1825,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695685</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1859,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>103.8284742946074</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482697</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2245,19 +2247,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244265</v>
       </c>
       <c r="H22" t="n">
-        <v>114.8528499950186</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2293,7 +2295,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>77.84041448887348</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2488,7 +2490,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>67.37282263167502</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -2527,16 +2529,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>161.6379250432762</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>20.28369113775232</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>90.06571353858833</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2854,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>119.9348501475796</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>130.9394714210105</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>52.49195549286434</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3436,10 +3438,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3475,16 +3477,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>179.9904867859624</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3506,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>169.8078304689392</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3670,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002664</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573253</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3752,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>178.1143223529979</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>86.20228614855897</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>372.7435437804134</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480023073</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973306765</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738402</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1674.602188492498</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>1236.459715675921</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>800.5499308503654</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>366.7751860086605</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
-        <v>342.9481604582723</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1149.495958523325</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1810.336013065103</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1810.336013065103</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>2471.176067606882</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.178548755904</v>
+        <v>1072.260748364489</v>
       </c>
       <c r="X2" t="n">
-        <v>2434.076489375619</v>
+        <v>653.1182849437999</v>
       </c>
       <c r="Y2" t="n">
-        <v>2100.901758977405</v>
+        <v>244.8321612434534</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>79.46488968908616</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>404.0232146552985</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1058.729261281022</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>1078.826174943254</v>
       </c>
       <c r="C4" t="n">
-        <v>760.7341398538243</v>
+        <v>906.264463426479</v>
       </c>
       <c r="D4" t="n">
-        <v>594.856147055347</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>425.0981433060843</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>248.3910892678405</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>142.0611657539532</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1270.644793662241</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>981.0148405224497</v>
+        <v>1267.592954512942</v>
       </c>
       <c r="C5" t="n">
-        <v>542.872367705873</v>
+        <v>1233.490885736769</v>
       </c>
       <c r="D5" t="n">
-        <v>106.9625828803175</v>
+        <v>797.5811009112138</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901677</v>
+        <v>767.846760109913</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862856</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862856</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>488.6559039815464</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>2301.55210234689</v>
       </c>
       <c r="W5" t="n">
-        <v>2234.742998128394</v>
+        <v>1896.696647757924</v>
       </c>
       <c r="X5" t="n">
-        <v>1815.600534707704</v>
+        <v>1477.554184337234</v>
       </c>
       <c r="Y5" t="n">
-        <v>1407.314411007358</v>
+        <v>1289.852120957446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>878.2081529410129</v>
+        <v>787.1708319353206</v>
       </c>
       <c r="C7" t="n">
-        <v>705.6464414242379</v>
+        <v>787.1708319353206</v>
       </c>
       <c r="D7" t="n">
-        <v>539.7684486257606</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="E7" t="n">
-        <v>370.0104448764978</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>193.303390838254</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>193.303390838254</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>53.40121652862856</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2626.132556724197</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2380.253110302652</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2101.820109555757</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1814.864601426188</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1542.838197012479</v>
+        <v>1451.800876006787</v>
       </c>
       <c r="X7" t="n">
-        <v>1297.446442345892</v>
+        <v>1206.4091213402</v>
       </c>
       <c r="Y7" t="n">
-        <v>1070.02677166</v>
+        <v>978.9894506543078</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.095648603258</v>
+        <v>752.2549115535338</v>
       </c>
       <c r="C8" t="n">
-        <v>1350.953175786681</v>
+        <v>314.1124387369571</v>
       </c>
       <c r="D8" t="n">
-        <v>915.0433909611256</v>
+        <v>282.2430579518057</v>
       </c>
       <c r="E8" t="n">
-        <v>481.2686461194208</v>
+        <v>252.508717150505</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4808,13 +4810,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4835,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X8" t="n">
-        <v>2623.681342788512</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.395219088166</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.800923465659</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="Q9" t="n">
-        <v>1599.468199913098</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>568.9155211348376</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>568.9155211348376</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>392.2084670965938</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4987,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K11" t="n">
-        <v>750.6905954094008</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L11" t="n">
-        <v>750.6905954094008</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>750.6905954094008</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>750.6905954094008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2806.319982838882</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2387.177519418192</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2218.120402216315</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>380.68472462299</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1061.418244693367</v>
+        <v>693.7847748441449</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.418244693367</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.418244693367</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.418244693367</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.418244693367</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2604.675963304948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2358.796516883403</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883403</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753834</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340125</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673538</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987646</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094008</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094008</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M14" t="n">
-        <v>750.6905954094008</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094008</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.66713212723</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2806.319982838882</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>2626.406525916661</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.120402216315</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>380.68472462299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.418244693367</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.418244693367</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.418244693367</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.418244693367</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.418244693367</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>765.6202370743899</v>
+        <v>790.3368563937663</v>
       </c>
       <c r="C16" t="n">
-        <v>593.0585255576149</v>
+        <v>743.3902861023174</v>
       </c>
       <c r="D16" t="n">
-        <v>427.1805327591376</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E16" t="n">
-        <v>310.3776238562746</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F16" t="n">
-        <v>310.3776238562746</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>144.7863488821023</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X16" t="n">
-        <v>1184.858526479269</v>
+        <v>1209.575145798645</v>
       </c>
       <c r="Y16" t="n">
-        <v>957.4388557933771</v>
+        <v>982.1554751127535</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5494,19 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1057.634124109941</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>885.0724125931655</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>719.1944197946882</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>549.4364160454254</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>372.7293620071816</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>207.1380870330093</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2559.679081471576</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2281.246080724681</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1994.290572595115</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1722.264168181407</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1476.87241351482</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1249.452742828928</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,46 +5758,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3462.891420506061</v>
+        <v>1011.560997133394</v>
       </c>
       <c r="C22" t="n">
-        <v>3290.329708989286</v>
+        <v>838.999285616619</v>
       </c>
       <c r="D22" t="n">
-        <v>3124.451716190809</v>
+        <v>673.1212928181417</v>
       </c>
       <c r="E22" t="n">
-        <v>2954.693712441546</v>
+        <v>673.1212928181417</v>
       </c>
       <c r="F22" t="n">
-        <v>2777.986658403302</v>
+        <v>496.4142387798979</v>
       </c>
       <c r="G22" t="n">
-        <v>2612.39538342913</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>4686.503377120805</v>
+        <v>2235.172953748138</v>
       </c>
       <c r="V22" t="n">
-        <v>4399.547868991236</v>
+        <v>1948.217445618569</v>
       </c>
       <c r="W22" t="n">
-        <v>4127.521464577528</v>
+        <v>1676.191041204861</v>
       </c>
       <c r="X22" t="n">
-        <v>3882.12970991094</v>
+        <v>1430.799286538273</v>
       </c>
       <c r="Y22" t="n">
-        <v>3654.710039225049</v>
+        <v>1203.379615852381</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1083.7810821021</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>911.2193705853248</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>745.3413777868475</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>575.5833740375847</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>398.8763199993409</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
         <v>330.8229638057298</v>
@@ -6175,22 +6177,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W25" t="n">
-        <v>1748.411126173566</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1503.019371506979</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1275.599700821087</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>4729.704604581732</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3409.849289273891</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C28" t="n">
-        <v>3237.287577757116</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D28" t="n">
-        <v>3071.409584958638</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>2901.651581209376</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>2724.944527171132</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>4911.894246635529</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>4633.461245888635</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>4346.505737759066</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>4074.479333345357</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>3829.08757867877</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>3601.667907992878</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,49 +6466,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3137.402081918264</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>677.2880215932364</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>507.5300178439736</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O33" t="n">
-        <v>3800.424250186843</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3398.73351020982</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>3226.171798693044</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>3060.293805894567</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E34" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>4900.778467571458</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>4622.345466824564</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>4335.389958694995</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>4063.363554281286</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>3817.971799614698</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>3590.552128928807</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6926,61 +6928,61 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>388.1086717343214</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>388.1086717343214</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987181</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257023</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>751.6989919312866</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>875.8255515988633</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>703.2638400820882</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>537.3858472836109</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7123,22 +7125,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2377.870508960502</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2099.437508213608</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1812.482000084038</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W37" t="n">
-        <v>1540.45559567033</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1295.063841003742</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1067.64417031785</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>1021.773653488281</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M38" t="n">
-        <v>2178.821488698832</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1003.573296407379</v>
+        <v>790.3368563937674</v>
       </c>
       <c r="C40" t="n">
-        <v>832.0502353276421</v>
+        <v>617.7751448769924</v>
       </c>
       <c r="D40" t="n">
-        <v>666.1722425291648</v>
+        <v>451.8971520785151</v>
       </c>
       <c r="E40" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292524</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910086</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008512</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878942</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.966900465234</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>982.1554751127546</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1791.820831731407</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.67835891483</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>917.7685740892747</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>483.9938292475699</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>176.1286096224173</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>870.6928053750404</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>870.6928053750404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>870.6928053750404</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6928053750404</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127664</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838882</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2626.406525916661</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2218.120402216315</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723522</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>426.819165236992</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>426.819165236992</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>744.2024157797618</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C43" t="n">
-        <v>744.2024157797618</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D43" t="n">
-        <v>578.3244229812846</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E43" t="n">
-        <v>408.5664192320218</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F43" t="n">
-        <v>231.859365193778</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>868.5448145635588</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>868.5448145635588</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>432.6350297380033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>432.6350297380033</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>432.6350297380033</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>176.1286096224173</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>870.6928053750404</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>870.6928053750404</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>870.6928053750404</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>870.6928053750404</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>1565.257001127664</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880287</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.668109022718</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>2463.445806339735</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2100.828856273562</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.973401684595</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1276.830938263905</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>868.5448145635588</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>380.68472462299</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1061.418244693367</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1061.454444409171</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>842.8792965674049</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>673.1212928181421</v>
       </c>
       <c r="F46" t="n">
-        <v>59.29765367700296</v>
+        <v>496.4142387798983</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677763</v>
+        <v>330.822963805726</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961005</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.03100411261585</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8060,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8383,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982018</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8456,16 +8458,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,25 +8689,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>243.3352893400963</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>546.2375134827064</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,13 +9406,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9477,13 +9479,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>629.6711904040903</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,25 +10114,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>606.9002735643703</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10200,10 +10202,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,7 +10363,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,16 +10594,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>654.127441484763</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10668,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10820,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318197</v>
+        <v>903.3699580700803</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -11379,7 +11381,7 @@
         <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.8367164334842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23464,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>143.6516710866792</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>236.8367164334845</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>124.3589898130729</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>52.4255438979358</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.67467827192185</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>23.65030257151066</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>197.8082562505522</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24376,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>96.56253959275558</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>81.78272691405309</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>223.136960819577</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>135.0797604404445</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>44.28436272291295</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>33.27974144948206</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>190.928696464465</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>63.43016517136684</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.028263932668153</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744404</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25640,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.8367164334845</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>77.73307607587164</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>24.64030928255534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>117.7661826744337</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>557249.4249206869</v>
+        <v>547272.223274553</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>557249.4249206869</v>
+        <v>555727.1048900698</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375575.8388218269</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375575.8388218269</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>567441.6372527586</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>567441.6372527587</v>
+        <v>567441.6372527586</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375575.8388218269</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375575.8388218269</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>415514.1729150666</v>
       </c>
       <c r="C2" t="n">
+        <v>415514.1729150666</v>
+      </c>
+      <c r="D2" t="n">
         <v>415514.1729150665</v>
       </c>
-      <c r="D2" t="n">
-        <v>415514.1729150666</v>
-      </c>
       <c r="E2" t="n">
-        <v>270253.5357583609</v>
+        <v>408314.627706448</v>
       </c>
       <c r="F2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="G2" t="n">
+        <v>408314.627706448</v>
+      </c>
+      <c r="H2" t="n">
         <v>408314.6277064481</v>
-      </c>
-      <c r="H2" t="n">
-        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
@@ -26347,13 +26349,13 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
+        <v>408314.6277064481</v>
+      </c>
+      <c r="O2" t="n">
         <v>408314.627706448</v>
       </c>
-      <c r="O2" t="n">
-        <v>270253.5357583609</v>
-      </c>
       <c r="P2" t="n">
-        <v>270253.5357583608</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045616</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.08170334076</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148010.1942457891</v>
+        <v>193696.6796511644</v>
       </c>
       <c r="C4" t="n">
+        <v>154981.0317940156</v>
+      </c>
+      <c r="D4" t="n">
         <v>148010.1942457892</v>
       </c>
-      <c r="D4" t="n">
-        <v>148010.1942457891</v>
-      </c>
       <c r="E4" t="n">
-        <v>36113.14695271203</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="F4" t="n">
-        <v>36113.14695271203</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962277</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
@@ -26439,25 +26441,25 @@
         <v>54561.82510962275</v>
       </c>
       <c r="J4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="K4" t="n">
-        <v>54561.82510962271</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="L4" t="n">
         <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="N4" t="n">
         <v>54561.82510962277</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>54561.82510962276</v>
       </c>
-      <c r="O4" t="n">
-        <v>36113.14695271204</v>
-      </c>
       <c r="P4" t="n">
-        <v>36113.14695271204</v>
+        <v>54561.82510962278</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30408.2444765251</v>
+        <v>20201.40446696989</v>
       </c>
       <c r="C6" t="n">
-        <v>193291.4541075197</v>
+        <v>121989.1594180325</v>
       </c>
       <c r="D6" t="n">
-        <v>193291.4541075198</v>
+        <v>181763.8585575367</v>
       </c>
       <c r="E6" t="n">
-        <v>181313.3284660417</v>
+        <v>93679.45476998296</v>
       </c>
       <c r="F6" t="n">
-        <v>191484.3250664978</v>
+        <v>276034.5639910328</v>
       </c>
       <c r="G6" t="n">
-        <v>117975.0870449236</v>
+        <v>276034.5639910328</v>
       </c>
       <c r="H6" t="n">
-        <v>276034.5639910327</v>
+        <v>276034.5639910328</v>
       </c>
       <c r="I6" t="n">
         <v>276034.5639910327</v>
       </c>
       <c r="J6" t="n">
-        <v>101383.2152733266</v>
+        <v>165020.0986460425</v>
       </c>
       <c r="K6" t="n">
+        <v>222988.7093522603</v>
+      </c>
+      <c r="L6" t="n">
+        <v>266642.2622644103</v>
+      </c>
+      <c r="M6" t="n">
+        <v>123834.393053045</v>
+      </c>
+      <c r="N6" t="n">
         <v>276034.5639910328</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
         <v>276034.5639910328</v>
       </c>
-      <c r="M6" t="n">
-        <v>267545.482287692</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>276034.5639910327</v>
-      </c>
-      <c r="O6" t="n">
-        <v>191484.3250664978</v>
-      </c>
-      <c r="P6" t="n">
-        <v>191484.3250664978</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186338</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>332.0070762976464</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>74.36027936911188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>33.83389772753344</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>58.66873794568221</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>328.8330305885849</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>218.3782197173524</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>135.3636110865062</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>192.1937452788716</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>226.8849511583581</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27909,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.8422500230731</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>54.79268646174563</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28564,7 +28566,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28779,7 +28781,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29572,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>30.03100411261585</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34778,10 +34780,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158827</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>145.5272350047205</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35103,13 +35105,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956006</v>
+        <v>299.7839758982018</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35176,16 +35178,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>17.17305800913118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327045</v>
+        <v>243.3352893400963</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>546.2375134827064</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327045</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1133.8392149967</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,13 +36126,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36197,13 +36199,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>629.6711904040903</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>216.3468123274661</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>606.9002735643703</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>469.2069973599082</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,10 +37080,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>288.7351832965068</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37312,16 +37314,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>654.127441484763</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>928.8008214318197</v>
+        <v>903.3699580700803</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,10 +37563,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>687.6461816022032</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>121.2143535006462</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327045</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
-        <v>0.03656536949870315</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_4_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1591436.847685778</v>
+        <v>1590911.665316745</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916853</v>
+        <v>278692.0725916854</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.02949848241227</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>36.43282423199739</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3853151429591</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -873,16 +873,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>5.08148512872441</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>387.7035943290204</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.8250427459907</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>4.586247039017054</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>77.11239509069979</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1138,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>196.7038041365262</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>36.97715937730158</v>
       </c>
     </row>
     <row r="9">
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>13.99728392830462</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>177.9326461527353</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1426,7 +1426,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>81.49380289235361</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>46.4771045885344</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1776,7 +1776,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436949</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695685</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1852,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932889</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1861,7 +1861,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2244,16 +2244,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244265</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>98.73120706590217</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>77.84041448887348</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>161.6379250432762</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.06571353858833</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2964,10 +2964,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>160.788496495006</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>5.990622819018522</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>130.9394714210105</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>187.5234134555184</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.13954148002664</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573253</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>172.6623007436909</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973306765</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4194,10 +4194,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>166.3197703738402</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>1633.062660869835</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>1204.480986607104</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>775.899312344372</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4342,7 +4342,7 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4360,22 +4360,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>653.1182849437999</v>
+        <v>1659.567546974282</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.8321612434534</v>
+        <v>1655.321827314339</v>
       </c>
     </row>
     <row r="3">
@@ -4412,19 +4412,19 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1078.826174943254</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="C4" t="n">
-        <v>906.264463426479</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
         <v>428.0970671107308</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1270.644793662241</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1270.644793662241</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>1270.644793662241</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="Y4" t="n">
-        <v>1270.644793662241</v>
+        <v>428.0970671107308</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1267.592954512942</v>
+        <v>561.584994754026</v>
       </c>
       <c r="C5" t="n">
-        <v>1233.490885736769</v>
+        <v>527.4829259778533</v>
       </c>
       <c r="D5" t="n">
-        <v>797.5811009112138</v>
+        <v>495.6135451927018</v>
       </c>
       <c r="E5" t="n">
-        <v>767.846760109913</v>
+        <v>465.8792043914011</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>442.0521788410128</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
         <v>50.43238658947704</v>
@@ -4573,13 +4573,13 @@
         <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>485.687074042395</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="O5" t="n">
         <v>1181.865694717422</v>
@@ -4594,25 +4594,25 @@
         <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473852</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.55210234689</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.55210234689</v>
+        <v>2178.745152974706</v>
       </c>
       <c r="V5" t="n">
-        <v>2301.55210234689</v>
+        <v>1816.128202908532</v>
       </c>
       <c r="W5" t="n">
-        <v>1896.696647757924</v>
+        <v>1411.272748319566</v>
       </c>
       <c r="X5" t="n">
-        <v>1477.554184337234</v>
+        <v>992.1302848988763</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.852120957446</v>
+        <v>583.8441611985297</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947704</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>431.6596472970924</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970924</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>787.1708319353206</v>
+        <v>780.2217816463395</v>
       </c>
       <c r="C7" t="n">
-        <v>787.1708319353206</v>
+        <v>780.2217816463395</v>
       </c>
       <c r="D7" t="n">
-        <v>621.2928391368433</v>
+        <v>614.3437888478622</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="F7" t="n">
         <v>444.5857850985995</v>
@@ -4725,25 +4725,25 @@
         <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473852</v>
@@ -4764,13 +4764,13 @@
         <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1451.800876006787</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1206.4091213402</v>
+        <v>1012.274025098915</v>
       </c>
       <c r="Y7" t="n">
-        <v>978.9894506543078</v>
+        <v>784.8543544130234</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>752.2549115535338</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>314.1124387369571</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>282.2430579518057</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>252.508717150505</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,22 +4810,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2005.983069159478</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1586.840605738788</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1178.554482038442</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1055.800923465659</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1716.640978007438</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2634.504334502149</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5041,16 +5041,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>306.1208027766299</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>306.1208027766299</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>306.1208027766299</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5074,19 +5074,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>693.7847748441449</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5278,28 +5278,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>269.4112304877946</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1103.761522445973</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2178.821488698832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
         <v>5113.042013538981</v>
@@ -5308,22 +5308,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937663</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>743.3902861023174</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>577.5122933038401</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>407.7542895545774</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5451,37 +5451,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176952</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2292.381813755407</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.966900465233</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798645</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127535</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
@@ -5524,7 +5524,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
         <v>2588.899621423628</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5673,46 +5673,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354734</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
         <v>1371.99516675259</v>
@@ -5794,10 +5794,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1011.560997133394</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C22" t="n">
-        <v>838.999285616619</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D22" t="n">
-        <v>673.1212928181417</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181417</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387798979</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G22" t="n">
         <v>330.8229638057298</v>
@@ -5913,49 +5913,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>463.598980006609</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>881.80886177457</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2597.774136893195</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2351.89469047165</v>
       </c>
       <c r="U22" t="n">
-        <v>2235.172953748138</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V22" t="n">
-        <v>1948.217445618569</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W22" t="n">
-        <v>1676.191041204861</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X22" t="n">
-        <v>1430.799286538273</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y22" t="n">
-        <v>1203.379615852381</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6177,22 +6177,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6235,16 +6235,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.781058858859</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>754.2193473420839</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1118.599677577846</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,25 +6776,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6937,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>3417.209496257023</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7119,19 +7119,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W37" t="n">
         <v>1845.949044954127</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937674</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769924</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>451.8971520785151</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292524</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910086</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.966900465234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127546</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7602,19 +7602,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
@@ -7654,10 +7654,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7681,19 +7681,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7730,22 +7730,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882657</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365882</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674049</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181421</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387798983</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>330.822963805726</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.949044954124</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954124</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.557290287536</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601644</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7990,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8060,22 +8060,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,16 +8221,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611007</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>630.4048323684628</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>385.0780411188034</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,7 +8385,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982018</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,10 +8771,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>243.3352893400963</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9883,19 +9883,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10597,7 +10597,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>654.127441484763</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>903.3699580700803</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,13 +11302,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>143.6516710866792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>124.3589898130729</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>102.9863699957308</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>58.91774794908113</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>197.8082562505522</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>81.78272691405309</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.0797604404445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.146865729424633</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.0953302292553</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>33.27974144948206</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>81.78272691405297</v>
+        <v>102.9863699957348</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744404</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>111.423652304583</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.7661826744337</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>567441.6372527586</v>
+        <v>567441.6372527587</v>
       </c>
     </row>
     <row r="13">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>415514.1729150665</v>
+      </c>
+      <c r="C2" t="n">
+        <v>415514.1729150667</v>
+      </c>
+      <c r="D2" t="n">
         <v>415514.1729150666</v>
-      </c>
-      <c r="C2" t="n">
-        <v>415514.1729150666</v>
-      </c>
-      <c r="D2" t="n">
-        <v>415514.1729150665</v>
       </c>
       <c r="E2" t="n">
         <v>408314.627706448</v>
@@ -26328,7 +26328,7 @@
         <v>408314.6277064481</v>
       </c>
       <c r="G2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
       <c r="H2" t="n">
         <v>408314.6277064481</v>
@@ -26349,13 +26349,13 @@
         <v>408314.627706448</v>
       </c>
       <c r="N2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064481</v>
       </c>
     </row>
     <row r="3">
@@ -26423,43 +26423,43 @@
         <v>154981.0317940156</v>
       </c>
       <c r="D4" t="n">
-        <v>148010.1942457892</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="F4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="G4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="H4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="I4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="J4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="K4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="L4" t="n">
+        <v>54561.82510962276</v>
+      </c>
+      <c r="M4" t="n">
         <v>54561.82510962275</v>
       </c>
-      <c r="J4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="K4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>54561.82510962275</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>54561.82510962276</v>
-      </c>
-      <c r="N4" t="n">
-        <v>54561.82510962277</v>
       </c>
       <c r="O4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="P4" t="n">
-        <v>54561.82510962278</v>
+        <v>54561.82510962277</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20201.40446696989</v>
+        <v>20201.40446696973</v>
       </c>
       <c r="C6" t="n">
-        <v>121989.1594180325</v>
+        <v>121989.1594180327</v>
       </c>
       <c r="D6" t="n">
-        <v>181763.8585575367</v>
+        <v>181763.8585575368</v>
       </c>
       <c r="E6" t="n">
-        <v>93679.45476998296</v>
+        <v>93656.23043060032</v>
       </c>
       <c r="F6" t="n">
-        <v>276034.5639910328</v>
+        <v>276011.3396516501</v>
       </c>
       <c r="G6" t="n">
-        <v>276034.5639910328</v>
+        <v>276011.3396516501</v>
       </c>
       <c r="H6" t="n">
-        <v>276034.5639910328</v>
+        <v>276011.3396516501</v>
       </c>
       <c r="I6" t="n">
-        <v>276034.5639910327</v>
+        <v>276011.33965165</v>
       </c>
       <c r="J6" t="n">
-        <v>165020.0986460425</v>
+        <v>164996.8743066599</v>
       </c>
       <c r="K6" t="n">
-        <v>222988.7093522603</v>
+        <v>222965.4850128777</v>
       </c>
       <c r="L6" t="n">
-        <v>266642.2622644103</v>
+        <v>266619.0379250276</v>
       </c>
       <c r="M6" t="n">
-        <v>123834.393053045</v>
+        <v>123811.1687136624</v>
       </c>
       <c r="N6" t="n">
-        <v>276034.5639910328</v>
+        <v>276011.33965165</v>
       </c>
       <c r="O6" t="n">
-        <v>276034.5639910328</v>
+        <v>276011.33965165</v>
       </c>
       <c r="P6" t="n">
-        <v>276034.5639910327</v>
+        <v>276011.3396516501</v>
       </c>
     </row>
   </sheetData>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.0070762976464</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27441,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.518214554485</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>33.83389772753344</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>237.8563519911972</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27621,22 +27621,22 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>9.680258733948335</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>218.3782197173524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.3141854927802</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>192.1937452788716</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>226.8849511583581</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>367.2261030860415</v>
       </c>
     </row>
     <row r="9">
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6516710866787</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>65.488005804594</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28332,7 +28332,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28745,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28866,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -34710,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34780,22 +34780,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,16 +34941,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611007</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>630.4048323684628</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>385.0780411188034</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>299.7839758982018</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,7 +35187,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>17.17305800913118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>205.9191540463134</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35491,10 +35491,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>243.3352893400963</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35506,10 +35506,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>168.8387779969848</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,7 +35658,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35892,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.8392149967</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908462</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36050,7 +36050,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36199,13 +36199,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961005</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36603,19 +36603,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>216.3468123274661</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37162,10 +37162,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>654.127441484763</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37326,10 +37326,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>903.3699580700803</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>687.6461816022032</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38022,13 +38022,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
